--- a/biology/Botanique/Tillandsia_tovarensis/Tillandsia_tovarensis.xlsx
+++ b/biology/Botanique/Tillandsia_tovarensis/Tillandsia_tovarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tovarensis Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète tovarensis signifie « originaire de Továr » ville du Venezuela près de laquelle la plante a été découverte.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tovarensis Mez, in C.DC., Monogr. Phan. 9: 769, n° 124 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « statura conspicua ; foliis rosulatis, supra glabris subtus dense minutissimeque lepidoto-punctulatis ; inflorescentia laxiuscule tripinnatim panniculata[sic] : spicis 3-6-floris, flabellatis, stipite prophyllis 3-5 aucto praeditis ; bracteis florigeris valde concavis nec carinatis, sepala aequantibus v. minute superantibus ; floribus erectis ; sepalis antico libero, posticis binis basi minute connatis ; petalis violaceo-caeruleis quam stamina ad 2 mm. longioribus, stylo staminibus paullo breviore. »
-Type : leg. Fendler, n° 2446 ; "Venezuela, inter Továr et Petaquira, alt. 2 300 m." ; Herb. Goetting[1].
+Type : leg. Fendler, n° 2446 ; "Venezuela, inter Továr et Petaquira, alt. 2 300 m." ; Herb. Goetting.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia arnoldiana Harms[2]
-Tillandsia spiculosa Griseb[1],[2].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -577,10 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia arnoldiana Harms
+Tillandsia spiculosa Griseb,.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[2].
-Habitat : forêt nuageuse[2].
-Altitude : 1500-3100 m[2].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,17 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Bolivie[2]
- Colombie[2]
- Équateur[2]
- Pérou[2]
- Venezuela[1],[2]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : forêt nuageuse.
+Altitude : 1500-3100 m.</t>
         </is>
       </c>
     </row>
@@ -670,10 +692,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Bolivie
+ Colombie
+ Équateur
+ Pérou
+ Venezuela,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_tovarensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_tovarensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
